--- a/4조/발표영상 및 PPT/영상/트스크립.xlsx
+++ b/4조/발표영상 및 PPT/영상/트스크립.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="9870"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>그래서 너 요즘 뭐 쓰는데? OWL? 
 아 그거 요즘 그렇게 핫 하다며? 알겠어 가입해볼게ㅎㅎ</t>
@@ -147,10 +147,6 @@
     <t>멤버 초대시 velocity를 사용하도록 하였고, 
 기존멤버의 경우는 기존아이디로 
 신규멤버의 경우는 회원가입을 통해 프로젝트에 참여하게 하였습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 공지사항 알림 (띵동)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,12 +434,65 @@
 #PM양도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t># 공지사항 알림 (띵동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#로그인.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#프로젝트생성.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:20
+00:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -557,17 +606,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -582,6 +620,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,7 +667,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,41 +698,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,6 +768,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -744,6 +851,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -778,6 +886,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,422 +1062,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="75.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.75" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="19" customWidth="1"/>
+    <col min="4" max="4" width="46.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="65.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="75.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="47.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+    <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="1" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="54">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="67.5">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="40.5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="175.5">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="21" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="40.5">
-      <c r="A18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="54">
-      <c r="A20" s="11"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="67.5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="19"/>
-      <c r="F21" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="G21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="40.5">
-      <c r="A22" s="11"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="67.5">
-      <c r="A23" s="11"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="8" t="s">
+      <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="81">
-      <c r="A24" s="11"/>
-      <c r="B24" s="19"/>
-      <c r="E24" s="3" t="s">
-        <v>48</v>
-      </c>
+    </row>
+    <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
       <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="94.5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="8" t="s">
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="G27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="27">
-      <c r="A26" s="11"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="19"/>
-      <c r="F27" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="27">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="E31" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="F32" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,12 +1539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1390,12 +1552,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4조/발표영상 및 PPT/영상/트스크립.xlsx
+++ b/4조/발표영상 및 PPT/영상/트스크립.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>그래서 너 요즘 뭐 쓰는데? OWL? 
 아 그거 요즘 그렇게 핫 하다며? 알겠어 가입해볼게ㅎㅎ</t>
@@ -485,6 +485,38 @@
   <si>
     <t>00:20
 00:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#유인나초대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#인턴축하공지사항.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#개인대시보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#유인나멘션언급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#이지은드라이브과제올리는거.mp4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#이지은이슈옮기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#유인나팀장님과개인메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#커스터마이징셋팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,12 +736,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,38 +784,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1065,15 +1097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.75" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="46.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="59.125" style="2" customWidth="1"/>
@@ -1101,13 +1133,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1124,8 +1156,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
@@ -1137,11 +1169,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1156,9 +1188,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,18 +1201,18 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1189,8 +1221,8 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1211,8 +1243,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="30"/>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -1226,11 +1258,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>88</v>
       </c>
       <c r="D10" s="1"/>
@@ -1243,11 +1275,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="15" t="s">
         <v>89</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1262,11 +1294,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="15" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1283,11 +1315,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1302,11 +1334,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="15" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="1"/>
@@ -1319,11 +1351,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="15" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1338,11 +1370,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1357,20 +1389,22 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1382,9 +1416,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="8" t="s">
         <v>82</v>
       </c>
@@ -1399,9 +1435,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="19"/>
       <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
@@ -1413,9 +1451,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="G21" s="3" t="s">
         <v>40</v>
       </c>
@@ -1427,9 +1467,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="19"/>
       <c r="D22" s="8" t="s">
         <v>39</v>
       </c>
@@ -1441,9 +1483,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
@@ -1458,9 +1502,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="81" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
       <c r="F24" s="3" t="s">
         <v>47</v>
       </c>
@@ -1469,9 +1513,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1480,9 +1526,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="8" t="s">
         <v>53</v>
       </c>
@@ -1494,17 +1542,17 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
       <c r="G27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8" t="s">
         <v>49</v>
       </c>
@@ -1514,8 +1562,8 @@
     </row>
     <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
       <c r="F29" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
